--- a/biology/Mycologie/Microcyclus/Microcyclus.xlsx
+++ b/biology/Mycologie/Microcyclus/Microcyclus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microcyclus est un genre de champignons ascomycètes de la famille  des Planistromellaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (15 juillet 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (15 juillet 2015) :
 Microcyclus achalensis (Speg.) Arx 1962
 Microcyclus amphimelaena (Mont.) Arx 1962
 Microcyclus angolensis Sacc., Syd. &amp; P. Syd. 1904
@@ -538,7 +552,7 @@
 Microcyclus tinctoria (Tul.) Arx 1962
 Microcyclus ulei (Henn.) Arx 1962
 Microcyclus uvariae (Hansf.) Sivan. 1975
-Selon Index Fungorum                                      (15 juillet 2015)[3] :
+Selon Index Fungorum                                      (15 juillet 2015) :
 Microcyclus achalensis (Speg.) Arx 1962
 Microcyclus amphimelaena (Mont.) Arx 1962
 Microcyclus angolensis Sacc., Syd. &amp; P. Syd. 1904
@@ -567,7 +581,7 @@
 Microcyclus ulei (Henn.) Arx 1962
 Microcyclus uvariae (Hansf.) Sivan. 1975
 Microcyclus walsurae Syd. &amp; P. Syd. 1915
-Selon Paleobiology Database                   (15 juillet 2015)[4] :
+Selon Paleobiology Database                   (15 juillet 2015) :
 Microcyclus blairi
 Microcyclus discus
 Microcyclus intermedius
